--- a/app/webroot/phpexcel/mau/mau_thunhapthue.xlsx
+++ b/app/webroot/phpexcel/mau/mau_thunhapthue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpxq2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{513342FE-D1D8-5342-92DA-264273E80AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF26F5-AF9D-CE41-92E0-2E3C69B79515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="3560" windowWidth="26440" windowHeight="15440" xr2:uid="{154BD8EF-3636-E34B-80E9-A0F8D013E5C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>BẢNG TỔNG HỢP THU NHẬP</t>
   </si>
@@ -120,17 +120,23 @@
     <t>B</t>
   </si>
   <si>
-    <t>CAO XUÂN A</t>
-  </si>
-  <si>
-    <t>NGUYỄN VĂN B</t>
+    <t>PHẠM MINH TUẤN</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐĂNG KHANH</t>
+  </si>
+  <si>
+    <t>NGUYỄN SONG LY</t>
+  </si>
+  <si>
+    <t>NINH VĂN ANH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +170,12 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -386,25 +398,15 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -412,64 +414,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -479,6 +433,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -795,369 +807,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32B8FDF-A5ED-0140-9830-C1A36B71B6F3}">
-  <dimension ref="A2:AA8"/>
+  <dimension ref="A2:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="6" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="5" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="8" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="56" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="10"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
         <v>8</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
         <v>9</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="5">
         <v>10</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
         <v>12</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="5">
         <v>13</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="5">
         <v>14</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="5">
         <v>15</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="5">
         <v>16</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16">
+      <c r="V6" s="5"/>
+      <c r="W6" s="5">
         <v>18</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="5">
         <v>19</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="5">
         <v>20</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="5">
         <v>21</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>103</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>56010000371717</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="6">
         <v>10310800</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="6">
         <v>1490000</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="6">
         <v>3550000</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="6">
         <v>596000</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="6">
         <v>2376000</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="J7" s="19">
-        <v>500000</v>
-      </c>
-      <c r="K7" s="19">
-        <v>500000</v>
-      </c>
-      <c r="L7" s="19">
-        <v>500000</v>
-      </c>
-      <c r="M7" s="20">
-        <v>500000</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="H7" s="6"/>
+      <c r="J7" s="6">
+        <v>500000</v>
+      </c>
+      <c r="K7" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L7" s="6">
+        <v>500000</v>
+      </c>
+      <c r="M7" s="7">
+        <v>500000</v>
+      </c>
+      <c r="N7" s="6">
         <v>14296120</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="6">
         <v>32618920</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="6">
         <v>3422232</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="6">
         <v>2950200</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="6">
         <v>6372432</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
         <v>1217843</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="6">
         <v>228345</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="6">
         <v>152230</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="6">
         <v>9000000</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="6">
         <v>10800000</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="6">
         <v>21398418</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="6">
         <v>11220502</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="6">
         <v>2933075</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="28" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>200</v>
-      </c>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>56110000788758</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="8">
         <v>10310800</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="8">
         <v>1490000</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="8">
         <v>3550000</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="8">
         <v>596000</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="8">
         <v>2376000</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23">
-        <v>500000</v>
-      </c>
-      <c r="K8" s="23">
-        <v>500000</v>
-      </c>
-      <c r="L8" s="23">
-        <v>500000</v>
-      </c>
-      <c r="M8" s="25">
-        <v>500000</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8">
+        <v>500000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>500000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>500000</v>
+      </c>
+      <c r="M8" s="10">
+        <v>500000</v>
+      </c>
+      <c r="N8" s="8">
         <v>14296120</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="8">
         <v>32618920</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="8">
         <v>3422232</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="8">
         <v>2950200</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="8">
         <v>6372432</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>1217843</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="8">
         <v>228345</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="8">
         <v>152230</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="8">
         <v>9000000</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="8">
         <v>10800000</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="8">
         <v>21398418</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="8">
         <v>11220502</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="8">
+        <v>2933075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>56110000260797</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10310800</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1490000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3550000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>596000</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2376000</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="6">
+        <v>500000</v>
+      </c>
+      <c r="K9" s="6">
+        <v>500000</v>
+      </c>
+      <c r="L9" s="6">
+        <v>500000</v>
+      </c>
+      <c r="M9" s="7">
+        <v>500000</v>
+      </c>
+      <c r="N9" s="6">
+        <v>14296120</v>
+      </c>
+      <c r="O9" s="6">
+        <v>32618920</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3422232</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>2950200</v>
+      </c>
+      <c r="R9" s="6">
+        <v>6372432</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>1217843</v>
+      </c>
+      <c r="U9" s="6">
+        <v>228345</v>
+      </c>
+      <c r="V9" s="6">
+        <v>152230</v>
+      </c>
+      <c r="W9" s="6">
+        <v>9000000</v>
+      </c>
+      <c r="X9" s="6">
+        <v>10800000</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>21398418</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>11220502</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>2933075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>56110000260414</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10310800</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1490000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3550000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>596000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2376000</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8">
+        <v>500000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>500000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>500000</v>
+      </c>
+      <c r="M10" s="10">
+        <v>500000</v>
+      </c>
+      <c r="N10" s="8">
+        <v>14296120</v>
+      </c>
+      <c r="O10" s="8">
+        <v>32618920</v>
+      </c>
+      <c r="P10" s="8">
+        <v>3422232</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2950200</v>
+      </c>
+      <c r="R10" s="8">
+        <v>6372432</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
+        <v>1217843</v>
+      </c>
+      <c r="U10" s="8">
+        <v>228345</v>
+      </c>
+      <c r="V10" s="8">
+        <v>152230</v>
+      </c>
+      <c r="W10" s="8">
+        <v>9000000</v>
+      </c>
+      <c r="X10" s="8">
+        <v>10800000</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>21398418</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>11220502</v>
+      </c>
+      <c r="AA10" s="8">
         <v>2933075</v>
       </c>
     </row>
